--- a/thermo calculations.xlsx
+++ b/thermo calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaier\Documents\Chemistry\Classes\220B\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A80091F8-699A-4E49-88E8-E530D5BE92C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909EFD91-5D57-4A9A-AFCA-42233E433C5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1030" yWindow="-110" windowWidth="18280" windowHeight="11020" xr2:uid="{01DDF75F-5899-45DB-ACCA-57480D8734A1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>dH</t>
   </si>
@@ -45,19 +45,22 @@
     <t>dH(kJ/mol)</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>dS(J/K/mol)</t>
   </si>
   <si>
     <t>dG(kJ/mol)</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
     <t>dG(kBT)</t>
+  </si>
+  <si>
+    <t>LAT Grb2 Binding</t>
+  </si>
+  <si>
+    <t>T(K)</t>
+  </si>
+  <si>
+    <t>RT(kJ/mol)</t>
   </si>
 </sst>
 </file>
@@ -409,119 +412,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C9B523-D5EE-44A2-92F4-8B7F66ABAF99}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>-13.8</v>
-      </c>
-      <c r="B2">
-        <f>A2*4.184</f>
-        <v>-57.739200000000004</v>
-      </c>
-      <c r="C2">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="D2">
-        <f>C2*4.184</f>
-        <v>-75.730400000000003</v>
-      </c>
-      <c r="E2">
-        <f>B2-$B$7*D2/1000</f>
-        <v>-35.550192800000005</v>
-      </c>
-      <c r="F2">
-        <f>E2/$B$8*1000</f>
-        <v>-14.593663223593415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>-15</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B4" si="0">A3*4.184</f>
-        <v>-62.760000000000005</v>
-      </c>
-      <c r="C3">
-        <v>-20.5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D4" si="1">C3*4.184</f>
-        <v>-85.772000000000006</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E4" si="2">B3-$B$7*D3/1000</f>
-        <v>-37.628804000000002</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F4" si="3">E3/$B$8*1000</f>
-        <v>-15.446951192979316</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>-13.8</v>
+      </c>
+      <c r="B4">
+        <f>A4*4.184</f>
+        <v>-57.739200000000004</v>
+      </c>
+      <c r="C4">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="D4">
+        <f>C4*4.184</f>
+        <v>-75.730400000000003</v>
+      </c>
+      <c r="E4">
+        <f>B4-$B$9*D4/1000</f>
+        <v>-35.550192800000005</v>
+      </c>
+      <c r="F4">
+        <f>E4/$B$10*1000</f>
+        <v>-14.593663223593415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>-15</v>
       </c>
-      <c r="B4">
+      <c r="B5">
+        <f t="shared" ref="B5:B6" si="0">A5*4.184</f>
+        <v>-62.760000000000005</v>
+      </c>
+      <c r="C5">
+        <v>-20.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="1">C5*4.184</f>
+        <v>-85.772000000000006</v>
+      </c>
+      <c r="E5">
+        <f>B5-$B$9*D5/1000</f>
+        <v>-37.628804000000002</v>
+      </c>
+      <c r="F5">
+        <f>E5/$B$10*1000</f>
+        <v>-15.446951192979316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>-15</v>
+      </c>
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>-62.760000000000005</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>-22</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <f t="shared" si="1"/>
         <v>-92.048000000000002</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
+      <c r="E6">
+        <f>B6-$B$9*D6/1000</f>
         <v>-35.789936000000004</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
+      <c r="F6">
+        <f>E6/$B$10*1000</f>
         <v>-14.692079891560025</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <f>8.314*293</f>
         <v>2436.002</v>
       </c>
